--- a/Yearly.xlsx
+++ b/Yearly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\Visualization\YHM Reports\YHM 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F8CFB7-B4C0-43E0-8517-4345E7E0CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829D266-DC13-49AE-9A94-886599849C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5208" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,14 +244,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,28 +289,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -318,7 +318,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -326,14 +326,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -341,14 +341,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -356,7 +356,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -364,14 +364,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1078,23 +1078,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT46"/>
+  <dimension ref="A1:BT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.73046875" customWidth="1"/>
-    <col min="2" max="2" width="21.53125" customWidth="1"/>
-    <col min="34" max="36" width="20.3984375" customWidth="1"/>
-    <col min="43" max="43" width="15.46484375" customWidth="1"/>
-    <col min="45" max="45" width="10.796875" customWidth="1"/>
-    <col min="46" max="46" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="5" max="5" width="14.5625" customWidth="1"/>
+    <col min="22" max="22" width="17.3125" customWidth="1"/>
+    <col min="23" max="23" width="14.8125" customWidth="1"/>
+    <col min="26" max="26" width="18.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>45293</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>45294</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>45295</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>45296</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>45297</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>45298</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>45299</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>45300</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>45301</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>45302</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>45303</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>45304</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>45305</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>45306</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>45307</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>45308</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>45309</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>45310</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>45311</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>45312</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>45313</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>45314</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>45315</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>45316</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>45317</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>45318</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>45319</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>45320</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>45321</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>45322</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>45323</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>45324</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>45325</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>45326</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>45327</v>
       </c>
@@ -7942,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>45328</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>45329</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>45330</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>45331</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>45332</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>45333</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>45334</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>45335</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>45336</v>
       </c>
@@ -9565,11 +9566,2788 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A47" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B47">
+        <v>0.8</v>
+      </c>
+      <c r="C47">
+        <v>-2.85</v>
+      </c>
+      <c r="D47">
+        <v>-3.85</v>
+      </c>
+      <c r="E47">
+        <v>-8.5</v>
+      </c>
+      <c r="G47">
+        <v>-12</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>82.7</v>
+      </c>
+      <c r="J47">
+        <v>81.5</v>
+      </c>
+      <c r="K47">
+        <v>63</v>
+      </c>
+      <c r="L47">
+        <v>0.2</v>
+      </c>
+      <c r="M47">
+        <v>-5.5</v>
+      </c>
+      <c r="N47">
+        <v>-4.8</v>
+      </c>
+      <c r="O47">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="P47">
+        <v>43</v>
+      </c>
+      <c r="Q47">
+        <v>17.75</v>
+      </c>
+      <c r="R47">
+        <v>23.5</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>61</v>
+      </c>
+      <c r="U47">
+        <v>25</v>
+      </c>
+      <c r="V47">
+        <v>102.38</v>
+      </c>
+      <c r="W47">
+        <v>101.35</v>
+      </c>
+      <c r="X47">
+        <v>101.38</v>
+      </c>
+      <c r="Y47">
+        <v>100.39</v>
+      </c>
+      <c r="Z47">
+        <v>99.4</v>
+      </c>
+      <c r="AA47">
+        <v>98.41</v>
+      </c>
+      <c r="AB47">
+        <v>98.44</v>
+      </c>
+      <c r="AC47">
+        <v>97.47</v>
+      </c>
+      <c r="AD47">
+        <v>24100</v>
+      </c>
+      <c r="AE47">
+        <v>18529.2</v>
+      </c>
+      <c r="AF47">
+        <v>12450</v>
+      </c>
+      <c r="AG47">
+        <v>800</v>
+      </c>
+      <c r="AH47">
+        <v>3.6</v>
+      </c>
+      <c r="AI47">
+        <v>2.4</v>
+      </c>
+      <c r="AJ47">
+        <v>2.8</v>
+      </c>
+      <c r="AK47">
+        <v>1.9</v>
+      </c>
+      <c r="AL47">
+        <v>21.9</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>5.8</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>5.8</v>
+      </c>
+      <c r="AT47">
+        <v>3</v>
+      </c>
+      <c r="AU47" s="2">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="AV47">
+        <v>1707999480</v>
+      </c>
+      <c r="AW47">
+        <v>7.3</v>
+      </c>
+      <c r="AX47" s="2">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="AY47">
+        <v>1708037400</v>
+      </c>
+      <c r="AZ47">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="BA47">
+        <v>10.53</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
+      <c r="BC47">
+        <v>1</v>
+      </c>
+      <c r="BD47">
+        <v>1</v>
+      </c>
+      <c r="BE47">
+        <v>1</v>
+      </c>
+      <c r="BF47">
+        <v>-4</v>
+      </c>
+      <c r="BG47">
+        <v>-4</v>
+      </c>
+      <c r="BM47">
+        <v>8</v>
+      </c>
+      <c r="BN47">
+        <v>5.3</v>
+      </c>
+      <c r="BO47">
+        <v>4.5</v>
+      </c>
+      <c r="BP47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A48" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B48">
+        <v>-1.5</v>
+      </c>
+      <c r="C48">
+        <v>-3.56</v>
+      </c>
+      <c r="D48">
+        <v>-3.7</v>
+      </c>
+      <c r="E48">
+        <v>-5.9</v>
+      </c>
+      <c r="G48">
+        <v>-11</v>
+      </c>
+      <c r="H48">
+        <v>87</v>
+      </c>
+      <c r="I48">
+        <v>69.7</v>
+      </c>
+      <c r="J48">
+        <v>71</v>
+      </c>
+      <c r="K48">
+        <v>55</v>
+      </c>
+      <c r="L48">
+        <v>-7.1</v>
+      </c>
+      <c r="M48">
+        <v>-8.4</v>
+      </c>
+      <c r="N48">
+        <v>-8.5</v>
+      </c>
+      <c r="O48">
+        <v>-9.9</v>
+      </c>
+      <c r="P48">
+        <v>32</v>
+      </c>
+      <c r="Q48">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="R48">
+        <v>19.5</v>
+      </c>
+      <c r="S48">
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <v>50</v>
+      </c>
+      <c r="U48">
+        <v>26</v>
+      </c>
+      <c r="V48">
+        <v>101.82</v>
+      </c>
+      <c r="W48">
+        <v>101.56</v>
+      </c>
+      <c r="X48">
+        <v>101.53</v>
+      </c>
+      <c r="Y48">
+        <v>101.24</v>
+      </c>
+      <c r="Z48">
+        <v>98.88</v>
+      </c>
+      <c r="AA48">
+        <v>98.62</v>
+      </c>
+      <c r="AB48">
+        <v>98.59</v>
+      </c>
+      <c r="AC48">
+        <v>98.3</v>
+      </c>
+      <c r="AD48">
+        <v>24100</v>
+      </c>
+      <c r="AE48">
+        <v>23766.7</v>
+      </c>
+      <c r="AF48">
+        <v>20100</v>
+      </c>
+      <c r="AG48">
+        <v>16100</v>
+      </c>
+      <c r="AH48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI48">
+        <v>2</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.8</v>
+      </c>
+      <c r="AL48">
+        <v>21.7</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>5</v>
+      </c>
+      <c r="AU48" s="2">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AV48">
+        <v>1708085760</v>
+      </c>
+      <c r="AW48">
+        <v>7.27</v>
+      </c>
+      <c r="AX48" s="2">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="AY48">
+        <v>1708123920</v>
+      </c>
+      <c r="AZ48">
+        <v>17.87</v>
+      </c>
+      <c r="BA48">
+        <v>10.6</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>2</v>
+      </c>
+      <c r="BD48">
+        <v>-1</v>
+      </c>
+      <c r="BE48">
+        <v>-1</v>
+      </c>
+      <c r="BF48">
+        <v>-7</v>
+      </c>
+      <c r="BG48">
+        <v>-7</v>
+      </c>
+      <c r="BM48">
+        <v>8</v>
+      </c>
+      <c r="BN48">
+        <v>6.6</v>
+      </c>
+      <c r="BO48">
+        <v>4.5</v>
+      </c>
+      <c r="BP48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A49" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B49">
+        <v>-4.5</v>
+      </c>
+      <c r="C49">
+        <v>-6.4</v>
+      </c>
+      <c r="D49">
+        <v>-6.65</v>
+      </c>
+      <c r="E49">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="G49">
+        <v>-16</v>
+      </c>
+      <c r="H49">
+        <v>91</v>
+      </c>
+      <c r="I49">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="J49">
+        <v>71</v>
+      </c>
+      <c r="K49">
+        <v>51</v>
+      </c>
+      <c r="L49">
+        <v>-7.6</v>
+      </c>
+      <c r="M49">
+        <v>-11.4</v>
+      </c>
+      <c r="N49">
+        <v>-11.2</v>
+      </c>
+      <c r="O49">
+        <v>-14.8</v>
+      </c>
+      <c r="P49">
+        <v>32</v>
+      </c>
+      <c r="Q49">
+        <v>18.12</v>
+      </c>
+      <c r="R49">
+        <v>20</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>55</v>
+      </c>
+      <c r="U49">
+        <v>27</v>
+      </c>
+      <c r="V49">
+        <v>101.38</v>
+      </c>
+      <c r="W49">
+        <v>101.2</v>
+      </c>
+      <c r="X49">
+        <v>101.09</v>
+      </c>
+      <c r="Y49">
+        <v>100.8</v>
+      </c>
+      <c r="Z49">
+        <v>98.42</v>
+      </c>
+      <c r="AA49">
+        <v>98.25</v>
+      </c>
+      <c r="AB49">
+        <v>98.14</v>
+      </c>
+      <c r="AC49">
+        <v>97.86</v>
+      </c>
+      <c r="AD49">
+        <v>24100</v>
+      </c>
+      <c r="AE49">
+        <v>22462.5</v>
+      </c>
+      <c r="AF49">
+        <v>12450</v>
+      </c>
+      <c r="AG49">
+        <v>800</v>
+      </c>
+      <c r="AH49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI49">
+        <v>1.9</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>1.7</v>
+      </c>
+      <c r="AL49">
+        <v>24.6</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>5</v>
+      </c>
+      <c r="AU49" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AV49">
+        <v>1708172100</v>
+      </c>
+      <c r="AW49">
+        <v>7.25</v>
+      </c>
+      <c r="AX49" s="2">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="AY49">
+        <v>1708210380</v>
+      </c>
+      <c r="AZ49">
+        <v>17.88</v>
+      </c>
+      <c r="BA49">
+        <v>10.63</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>1</v>
+      </c>
+      <c r="BD49">
+        <v>-5</v>
+      </c>
+      <c r="BE49">
+        <v>-5</v>
+      </c>
+      <c r="BF49">
+        <v>-8</v>
+      </c>
+      <c r="BG49">
+        <v>-8</v>
+      </c>
+      <c r="BM49">
+        <v>8</v>
+      </c>
+      <c r="BN49">
+        <v>5.9</v>
+      </c>
+      <c r="BO49">
+        <v>4.5</v>
+      </c>
+      <c r="BP49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A50" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B50">
+        <v>-2</v>
+      </c>
+      <c r="C50">
+        <v>-4.17</v>
+      </c>
+      <c r="D50">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="E50">
+        <v>-7.3</v>
+      </c>
+      <c r="G50">
+        <v>-17</v>
+      </c>
+      <c r="H50">
+        <v>95</v>
+      </c>
+      <c r="I50">
+        <v>78.5</v>
+      </c>
+      <c r="J50">
+        <v>79</v>
+      </c>
+      <c r="K50">
+        <v>63</v>
+      </c>
+      <c r="L50">
+        <v>-5.2</v>
+      </c>
+      <c r="M50">
+        <v>-7.4</v>
+      </c>
+      <c r="N50">
+        <v>-7.7</v>
+      </c>
+      <c r="O50">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="P50">
+        <v>44</v>
+      </c>
+      <c r="Q50">
+        <v>31.58</v>
+      </c>
+      <c r="R50">
+        <v>31</v>
+      </c>
+      <c r="S50">
+        <v>18</v>
+      </c>
+      <c r="T50">
+        <v>58</v>
+      </c>
+      <c r="U50">
+        <v>22</v>
+      </c>
+      <c r="V50">
+        <v>101.66</v>
+      </c>
+      <c r="W50">
+        <v>100.76</v>
+      </c>
+      <c r="X50">
+        <v>101.06</v>
+      </c>
+      <c r="Y50">
+        <v>100.46</v>
+      </c>
+      <c r="Z50">
+        <v>98.71</v>
+      </c>
+      <c r="AA50">
+        <v>97.82</v>
+      </c>
+      <c r="AB50">
+        <v>98.12</v>
+      </c>
+      <c r="AC50">
+        <v>97.54</v>
+      </c>
+      <c r="AD50">
+        <v>24100</v>
+      </c>
+      <c r="AE50">
+        <v>18320.8</v>
+      </c>
+      <c r="AF50">
+        <v>12850</v>
+      </c>
+      <c r="AG50">
+        <v>1600</v>
+      </c>
+      <c r="AH50">
+        <v>2.5</v>
+      </c>
+      <c r="AI50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK50">
+        <v>2</v>
+      </c>
+      <c r="AL50">
+        <v>22.6</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>1.2</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>1.2</v>
+      </c>
+      <c r="AT50">
+        <v>6</v>
+      </c>
+      <c r="AU50" s="2">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AV50">
+        <v>1708258440</v>
+      </c>
+      <c r="AW50">
+        <v>7.23</v>
+      </c>
+      <c r="AX50" s="2">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="AY50">
+        <v>1708296840</v>
+      </c>
+      <c r="AZ50">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="BA50">
+        <v>10.67</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>-9</v>
+      </c>
+      <c r="BG50">
+        <v>-6</v>
+      </c>
+      <c r="BM50">
+        <v>8</v>
+      </c>
+      <c r="BN50">
+        <v>7.5</v>
+      </c>
+      <c r="BO50">
+        <v>6</v>
+      </c>
+      <c r="BP50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A51" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B51">
+        <v>-1.8</v>
+      </c>
+      <c r="C51">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="D51">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="E51">
+        <v>-7.5</v>
+      </c>
+      <c r="G51">
+        <v>-10</v>
+      </c>
+      <c r="H51">
+        <v>80</v>
+      </c>
+      <c r="I51">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J51">
+        <v>66.5</v>
+      </c>
+      <c r="K51">
+        <v>53</v>
+      </c>
+      <c r="L51">
+        <v>-8.1</v>
+      </c>
+      <c r="M51">
+        <v>-10.1</v>
+      </c>
+      <c r="N51">
+        <v>-10.3</v>
+      </c>
+      <c r="O51">
+        <v>-12.5</v>
+      </c>
+      <c r="P51">
+        <v>16</v>
+      </c>
+      <c r="Q51">
+        <v>8.67</v>
+      </c>
+      <c r="R51">
+        <v>9.5</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>102.76</v>
+      </c>
+      <c r="W51">
+        <v>102.41</v>
+      </c>
+      <c r="X51">
+        <v>102.26</v>
+      </c>
+      <c r="Y51">
+        <v>101.75</v>
+      </c>
+      <c r="Z51">
+        <v>99.76</v>
+      </c>
+      <c r="AA51">
+        <v>99.43</v>
+      </c>
+      <c r="AB51">
+        <v>99.28</v>
+      </c>
+      <c r="AC51">
+        <v>98.79</v>
+      </c>
+      <c r="AD51">
+        <v>24100</v>
+      </c>
+      <c r="AE51">
+        <v>24100</v>
+      </c>
+      <c r="AF51">
+        <v>24100</v>
+      </c>
+      <c r="AG51">
+        <v>24100</v>
+      </c>
+      <c r="AH51">
+        <v>2.7</v>
+      </c>
+      <c r="AI51">
+        <v>2.4</v>
+      </c>
+      <c r="AJ51">
+        <v>2.4</v>
+      </c>
+      <c r="AK51">
+        <v>2.1</v>
+      </c>
+      <c r="AL51">
+        <v>22.6</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>6</v>
+      </c>
+      <c r="AU51" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AV51">
+        <v>1708344720</v>
+      </c>
+      <c r="AW51">
+        <v>7.2</v>
+      </c>
+      <c r="AX51" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="AY51">
+        <v>1708383300</v>
+      </c>
+      <c r="AZ51">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="BA51">
+        <v>10.72</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>2</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>-10</v>
+      </c>
+      <c r="BG51">
+        <v>-10</v>
+      </c>
+      <c r="BM51">
+        <v>8</v>
+      </c>
+      <c r="BN51">
+        <v>5.7</v>
+      </c>
+      <c r="BO51">
+        <v>4.5</v>
+      </c>
+      <c r="BP51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B52">
+        <v>5.4</v>
+      </c>
+      <c r="C52">
+        <v>-1.54</v>
+      </c>
+      <c r="D52">
+        <v>-0.54</v>
+      </c>
+      <c r="E52">
+        <v>-6.5</v>
+      </c>
+      <c r="G52">
+        <v>-11</v>
+      </c>
+      <c r="H52">
+        <v>84</v>
+      </c>
+      <c r="I52">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="J52">
+        <v>64</v>
+      </c>
+      <c r="K52">
+        <v>44</v>
+      </c>
+      <c r="L52">
+        <v>-4.5</v>
+      </c>
+      <c r="M52">
+        <v>-7</v>
+      </c>
+      <c r="N52">
+        <v>-7</v>
+      </c>
+      <c r="O52">
+        <v>-9.4</v>
+      </c>
+      <c r="P52">
+        <v>17</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <v>102.99</v>
+      </c>
+      <c r="W52">
+        <v>102.8</v>
+      </c>
+      <c r="X52">
+        <v>102.78</v>
+      </c>
+      <c r="Y52">
+        <v>102.58</v>
+      </c>
+      <c r="Z52">
+        <v>100.01</v>
+      </c>
+      <c r="AA52">
+        <v>99.82</v>
+      </c>
+      <c r="AB52">
+        <v>99.82</v>
+      </c>
+      <c r="AC52">
+        <v>99.62</v>
+      </c>
+      <c r="AD52">
+        <v>24100</v>
+      </c>
+      <c r="AE52">
+        <v>24100</v>
+      </c>
+      <c r="AF52">
+        <v>24100</v>
+      </c>
+      <c r="AG52">
+        <v>24100</v>
+      </c>
+      <c r="AH52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI52">
+        <v>3.1</v>
+      </c>
+      <c r="AJ52">
+        <v>3.3</v>
+      </c>
+      <c r="AK52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL52">
+        <v>18.5</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>3</v>
+      </c>
+      <c r="AU52" s="2">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="AV52">
+        <v>1708431060</v>
+      </c>
+      <c r="AW52">
+        <v>7.18</v>
+      </c>
+      <c r="AX52" s="2">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="AY52">
+        <v>1708469820</v>
+      </c>
+      <c r="AZ52">
+        <v>17.95</v>
+      </c>
+      <c r="BA52">
+        <v>10.77</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>2</v>
+      </c>
+      <c r="BD52">
+        <v>4</v>
+      </c>
+      <c r="BE52">
+        <v>4</v>
+      </c>
+      <c r="BF52">
+        <v>-3</v>
+      </c>
+      <c r="BG52">
+        <v>-3</v>
+      </c>
+      <c r="BM52">
+        <v>7</v>
+      </c>
+      <c r="BN52">
+        <v>2</v>
+      </c>
+      <c r="BO52">
+        <v>4</v>
+      </c>
+      <c r="BP52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A53" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B53">
+        <v>10.9</v>
+      </c>
+      <c r="C53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D53">
+        <v>3.85</v>
+      </c>
+      <c r="E53">
+        <v>-3.2</v>
+      </c>
+      <c r="G53">
+        <v>-6</v>
+      </c>
+      <c r="H53">
+        <v>83</v>
+      </c>
+      <c r="I53">
+        <v>60.2</v>
+      </c>
+      <c r="J53">
+        <v>63</v>
+      </c>
+      <c r="K53">
+        <v>43</v>
+      </c>
+      <c r="L53">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M53">
+        <v>-2.9</v>
+      </c>
+      <c r="N53">
+        <v>-4.3</v>
+      </c>
+      <c r="O53">
+        <v>-7.5</v>
+      </c>
+      <c r="P53">
+        <v>28</v>
+      </c>
+      <c r="Q53">
+        <v>16.25</v>
+      </c>
+      <c r="R53">
+        <v>17.5</v>
+      </c>
+      <c r="S53">
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <v>36</v>
+      </c>
+      <c r="U53">
+        <v>18</v>
+      </c>
+      <c r="V53">
+        <v>102.54</v>
+      </c>
+      <c r="W53">
+        <v>101.93</v>
+      </c>
+      <c r="X53">
+        <v>101.86</v>
+      </c>
+      <c r="Y53">
+        <v>101.18</v>
+      </c>
+      <c r="Z53">
+        <v>99.59</v>
+      </c>
+      <c r="AA53">
+        <v>99.01</v>
+      </c>
+      <c r="AB53">
+        <v>98.95</v>
+      </c>
+      <c r="AC53">
+        <v>98.31</v>
+      </c>
+      <c r="AD53">
+        <v>24100</v>
+      </c>
+      <c r="AE53">
+        <v>24100</v>
+      </c>
+      <c r="AF53">
+        <v>24100</v>
+      </c>
+      <c r="AG53">
+        <v>24100</v>
+      </c>
+      <c r="AH53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI53">
+        <v>3.2</v>
+      </c>
+      <c r="AJ53">
+        <v>3.5</v>
+      </c>
+      <c r="AK53">
+        <v>2.7</v>
+      </c>
+      <c r="AL53">
+        <v>14.2</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="AV53">
+        <v>1708517340</v>
+      </c>
+      <c r="AW53">
+        <v>7.15</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="AY53">
+        <v>1708556280</v>
+      </c>
+      <c r="AZ53">
+        <v>17.97</v>
+      </c>
+      <c r="BA53">
+        <v>10.82</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>2</v>
+      </c>
+      <c r="BD53">
+        <v>8</v>
+      </c>
+      <c r="BE53">
+        <v>8</v>
+      </c>
+      <c r="BF53">
+        <v>2</v>
+      </c>
+      <c r="BG53">
+        <v>3</v>
+      </c>
+      <c r="BM53">
+        <v>8</v>
+      </c>
+      <c r="BN53">
+        <v>6</v>
+      </c>
+      <c r="BO53">
+        <v>5</v>
+      </c>
+      <c r="BP53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A54" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>5.65</v>
+      </c>
+      <c r="D54">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E54">
+        <v>0.3</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>80.3</v>
+      </c>
+      <c r="J54">
+        <v>78.5</v>
+      </c>
+      <c r="K54">
+        <v>57</v>
+      </c>
+      <c r="L54">
+        <v>5.8</v>
+      </c>
+      <c r="M54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O54">
+        <v>-1.2</v>
+      </c>
+      <c r="P54">
+        <v>22</v>
+      </c>
+      <c r="Q54">
+        <v>12.75</v>
+      </c>
+      <c r="R54">
+        <v>14.5</v>
+      </c>
+      <c r="S54">
+        <v>7</v>
+      </c>
+      <c r="T54">
+        <v>36</v>
+      </c>
+      <c r="U54">
+        <v>17</v>
+      </c>
+      <c r="V54">
+        <v>101.12</v>
+      </c>
+      <c r="W54">
+        <v>100.61</v>
+      </c>
+      <c r="X54">
+        <v>100.66</v>
+      </c>
+      <c r="Y54">
+        <v>100.2</v>
+      </c>
+      <c r="Z54">
+        <v>98.25</v>
+      </c>
+      <c r="AA54">
+        <v>97.74</v>
+      </c>
+      <c r="AB54">
+        <v>97.79</v>
+      </c>
+      <c r="AC54">
+        <v>97.34</v>
+      </c>
+      <c r="AD54">
+        <v>24100</v>
+      </c>
+      <c r="AE54">
+        <v>16929.2</v>
+      </c>
+      <c r="AF54">
+        <v>12050</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>3.6</v>
+      </c>
+      <c r="AI54">
+        <v>3</v>
+      </c>
+      <c r="AJ54">
+        <v>3</v>
+      </c>
+      <c r="AK54">
+        <v>2.4</v>
+      </c>
+      <c r="AL54">
+        <v>13.3</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="2">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="AV54">
+        <v>1708603620</v>
+      </c>
+      <c r="AW54">
+        <v>7.12</v>
+      </c>
+      <c r="AX54" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="AY54">
+        <v>1708642740</v>
+      </c>
+      <c r="AZ54">
+        <v>17.98</v>
+      </c>
+      <c r="BA54">
+        <v>10.87</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>2</v>
+      </c>
+      <c r="BD54">
+        <v>10</v>
+      </c>
+      <c r="BE54">
+        <v>10</v>
+      </c>
+      <c r="BF54">
+        <v>1</v>
+      </c>
+      <c r="BG54">
+        <v>1</v>
+      </c>
+      <c r="BM54">
+        <v>8</v>
+      </c>
+      <c r="BN54">
+        <v>6.2</v>
+      </c>
+      <c r="BO54">
+        <v>4.5</v>
+      </c>
+      <c r="BP54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A55" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B55">
+        <v>10.6</v>
+      </c>
+      <c r="C55">
+        <v>0.63</v>
+      </c>
+      <c r="D55">
+        <v>1.75</v>
+      </c>
+      <c r="E55">
+        <v>-7.1</v>
+      </c>
+      <c r="G55">
+        <v>-13</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>78.2</v>
+      </c>
+      <c r="J55">
+        <v>74</v>
+      </c>
+      <c r="K55">
+        <v>48</v>
+      </c>
+      <c r="L55">
+        <v>3.3</v>
+      </c>
+      <c r="M55">
+        <v>-3.2</v>
+      </c>
+      <c r="N55">
+        <v>-5.3</v>
+      </c>
+      <c r="O55">
+        <v>-13.9</v>
+      </c>
+      <c r="P55">
+        <v>27</v>
+      </c>
+      <c r="Q55">
+        <v>16.46</v>
+      </c>
+      <c r="R55">
+        <v>17.5</v>
+      </c>
+      <c r="S55">
+        <v>8</v>
+      </c>
+      <c r="T55">
+        <v>36</v>
+      </c>
+      <c r="U55">
+        <v>32</v>
+      </c>
+      <c r="V55">
+        <v>100.87</v>
+      </c>
+      <c r="W55">
+        <v>100.23</v>
+      </c>
+      <c r="X55">
+        <v>100.41</v>
+      </c>
+      <c r="Y55">
+        <v>99.95</v>
+      </c>
+      <c r="Z55">
+        <v>97.96</v>
+      </c>
+      <c r="AA55">
+        <v>97.35</v>
+      </c>
+      <c r="AB55">
+        <v>97.53</v>
+      </c>
+      <c r="AC55">
+        <v>97.1</v>
+      </c>
+      <c r="AD55">
+        <v>24100</v>
+      </c>
+      <c r="AE55">
+        <v>13283.3</v>
+      </c>
+      <c r="AF55">
+        <v>12150</v>
+      </c>
+      <c r="AG55">
+        <v>200</v>
+      </c>
+      <c r="AH55">
+        <v>3</v>
+      </c>
+      <c r="AI55">
+        <v>2.5</v>
+      </c>
+      <c r="AJ55">
+        <v>2.5</v>
+      </c>
+      <c r="AK55">
+        <v>1.9</v>
+      </c>
+      <c r="AL55">
+        <v>16.2</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="2">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="AV55">
+        <v>1708689960</v>
+      </c>
+      <c r="AW55">
+        <v>7.1</v>
+      </c>
+      <c r="AX55" s="2">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="AY55">
+        <v>1708729260</v>
+      </c>
+      <c r="AZ55">
+        <v>18.02</v>
+      </c>
+      <c r="BA55">
+        <v>10.92</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>2</v>
+      </c>
+      <c r="BD55">
+        <v>5</v>
+      </c>
+      <c r="BE55">
+        <v>5</v>
+      </c>
+      <c r="BF55">
+        <v>-13</v>
+      </c>
+      <c r="BG55">
+        <v>-1</v>
+      </c>
+      <c r="BM55">
+        <v>8</v>
+      </c>
+      <c r="BN55">
+        <v>5.4</v>
+      </c>
+      <c r="BO55">
+        <v>5</v>
+      </c>
+      <c r="BP55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A56" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B56">
+        <v>-2.6</v>
+      </c>
+      <c r="C56">
+        <v>-7.83</v>
+      </c>
+      <c r="D56">
+        <v>-7.8</v>
+      </c>
+      <c r="E56">
+        <v>-13</v>
+      </c>
+      <c r="G56">
+        <v>-22</v>
+      </c>
+      <c r="H56">
+        <v>81</v>
+      </c>
+      <c r="I56">
+        <v>52.4</v>
+      </c>
+      <c r="J56">
+        <v>57.5</v>
+      </c>
+      <c r="K56">
+        <v>34</v>
+      </c>
+      <c r="L56">
+        <v>-11.1</v>
+      </c>
+      <c r="M56">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="N56">
+        <v>-15.8</v>
+      </c>
+      <c r="O56">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="P56">
+        <v>25</v>
+      </c>
+      <c r="Q56">
+        <v>14.12</v>
+      </c>
+      <c r="R56">
+        <v>15</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>36</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>101.82</v>
+      </c>
+      <c r="W56">
+        <v>101.52</v>
+      </c>
+      <c r="X56">
+        <v>101.36</v>
+      </c>
+      <c r="Y56">
+        <v>100.9</v>
+      </c>
+      <c r="Z56">
+        <v>98.83</v>
+      </c>
+      <c r="AA56">
+        <v>98.56</v>
+      </c>
+      <c r="AB56">
+        <v>98.42</v>
+      </c>
+      <c r="AC56">
+        <v>98</v>
+      </c>
+      <c r="AD56">
+        <v>24100</v>
+      </c>
+      <c r="AE56">
+        <v>24100</v>
+      </c>
+      <c r="AF56">
+        <v>24100</v>
+      </c>
+      <c r="AG56">
+        <v>24100</v>
+      </c>
+      <c r="AH56">
+        <v>3.3</v>
+      </c>
+      <c r="AI56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ56">
+        <v>2.5</v>
+      </c>
+      <c r="AK56">
+        <v>1.8</v>
+      </c>
+      <c r="AL56">
+        <v>25.8</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="2">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="AV56">
+        <v>1708776240</v>
+      </c>
+      <c r="AW56">
+        <v>7.07</v>
+      </c>
+      <c r="AX56" s="2">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="AY56">
+        <v>1708815720</v>
+      </c>
+      <c r="AZ56">
+        <v>18.03</v>
+      </c>
+      <c r="BA56">
+        <v>10.97</v>
+      </c>
+      <c r="BB56">
+        <v>2</v>
+      </c>
+      <c r="BC56">
+        <v>2</v>
+      </c>
+      <c r="BD56">
+        <v>-3</v>
+      </c>
+      <c r="BE56">
+        <v>-3</v>
+      </c>
+      <c r="BF56">
+        <v>-9</v>
+      </c>
+      <c r="BG56">
+        <v>-9</v>
+      </c>
+      <c r="BM56">
+        <v>8</v>
+      </c>
+      <c r="BN56">
+        <v>1.5</v>
+      </c>
+      <c r="BO56">
+        <v>4</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A57" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B57">
+        <v>4.7</v>
+      </c>
+      <c r="C57">
+        <v>0.03</v>
+      </c>
+      <c r="D57">
+        <v>-1.35</v>
+      </c>
+      <c r="E57">
+        <v>-7.4</v>
+      </c>
+      <c r="G57">
+        <v>-13</v>
+      </c>
+      <c r="H57">
+        <v>83</v>
+      </c>
+      <c r="I57">
+        <v>64.5</v>
+      </c>
+      <c r="J57">
+        <v>65.5</v>
+      </c>
+      <c r="K57">
+        <v>48</v>
+      </c>
+      <c r="L57">
+        <v>-2.4</v>
+      </c>
+      <c r="M57">
+        <v>-6.2</v>
+      </c>
+      <c r="N57">
+        <v>-6.5</v>
+      </c>
+      <c r="O57">
+        <v>-10.5</v>
+      </c>
+      <c r="P57">
+        <v>36</v>
+      </c>
+      <c r="Q57">
+        <v>25.75</v>
+      </c>
+      <c r="R57">
+        <v>24.5</v>
+      </c>
+      <c r="S57">
+        <v>13</v>
+      </c>
+      <c r="T57">
+        <v>49</v>
+      </c>
+      <c r="U57">
+        <v>21</v>
+      </c>
+      <c r="V57">
+        <v>101.79</v>
+      </c>
+      <c r="W57">
+        <v>101.28</v>
+      </c>
+      <c r="X57">
+        <v>101.28</v>
+      </c>
+      <c r="Y57">
+        <v>100.78</v>
+      </c>
+      <c r="Z57">
+        <v>98.82</v>
+      </c>
+      <c r="AA57">
+        <v>98.35</v>
+      </c>
+      <c r="AB57">
+        <v>98.35</v>
+      </c>
+      <c r="AC57">
+        <v>97.87</v>
+      </c>
+      <c r="AD57">
+        <v>24100</v>
+      </c>
+      <c r="AE57">
+        <v>24100</v>
+      </c>
+      <c r="AF57">
+        <v>24100</v>
+      </c>
+      <c r="AG57">
+        <v>24100</v>
+      </c>
+      <c r="AH57">
+        <v>2.7</v>
+      </c>
+      <c r="AI57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK57">
+        <v>1.8</v>
+      </c>
+      <c r="AL57">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="2">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="AV57">
+        <v>1708862580</v>
+      </c>
+      <c r="AW57">
+        <v>7.05</v>
+      </c>
+      <c r="AX57" s="2">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="AY57">
+        <v>1708902180</v>
+      </c>
+      <c r="AZ57">
+        <v>18.05</v>
+      </c>
+      <c r="BA57">
+        <v>11</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>2</v>
+      </c>
+      <c r="BD57">
+        <v>4</v>
+      </c>
+      <c r="BE57">
+        <v>5</v>
+      </c>
+      <c r="BF57">
+        <v>-2</v>
+      </c>
+      <c r="BG57">
+        <v>-1</v>
+      </c>
+      <c r="BM57">
+        <v>8</v>
+      </c>
+      <c r="BN57">
+        <v>3.8</v>
+      </c>
+      <c r="BO57">
+        <v>4.5</v>
+      </c>
+      <c r="BP57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A58" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B58">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C58">
+        <v>3.06</v>
+      </c>
+      <c r="D58">
+        <v>3.8</v>
+      </c>
+      <c r="E58">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G58">
+        <v>-6</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="J58">
+        <v>69.5</v>
+      </c>
+      <c r="K58">
+        <v>39</v>
+      </c>
+      <c r="L58">
+        <v>0.2</v>
+      </c>
+      <c r="M58">
+        <v>-3.3</v>
+      </c>
+      <c r="N58">
+        <v>-3.5</v>
+      </c>
+      <c r="O58">
+        <v>-7.2</v>
+      </c>
+      <c r="P58">
+        <v>22</v>
+      </c>
+      <c r="Q58">
+        <v>12.21</v>
+      </c>
+      <c r="R58">
+        <v>13.5</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
+      </c>
+      <c r="V58">
+        <v>101.59</v>
+      </c>
+      <c r="W58">
+        <v>101.26</v>
+      </c>
+      <c r="X58">
+        <v>101.25</v>
+      </c>
+      <c r="Y58">
+        <v>100.91</v>
+      </c>
+      <c r="Z58">
+        <v>98.69</v>
+      </c>
+      <c r="AA58">
+        <v>98.36</v>
+      </c>
+      <c r="AB58">
+        <v>98.36</v>
+      </c>
+      <c r="AC58">
+        <v>98.02</v>
+      </c>
+      <c r="AD58">
+        <v>24100</v>
+      </c>
+      <c r="AE58">
+        <v>23700</v>
+      </c>
+      <c r="AF58">
+        <v>21700</v>
+      </c>
+      <c r="AG58">
+        <v>19300</v>
+      </c>
+      <c r="AH58">
+        <v>3.4</v>
+      </c>
+      <c r="AI58">
+        <v>2.8</v>
+      </c>
+      <c r="AJ58">
+        <v>2.8</v>
+      </c>
+      <c r="AK58">
+        <v>2.1</v>
+      </c>
+      <c r="AL58">
+        <v>14.2</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="2">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="AV58">
+        <v>1708948860</v>
+      </c>
+      <c r="AW58">
+        <v>7.02</v>
+      </c>
+      <c r="AX58" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="AY58">
+        <v>1708988700</v>
+      </c>
+      <c r="AZ58">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="BA58">
+        <v>11.07</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>2</v>
+      </c>
+      <c r="BD58">
+        <v>7</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2</v>
+      </c>
+      <c r="BG58">
+        <v>2</v>
+      </c>
+      <c r="BM58">
+        <v>7</v>
+      </c>
+      <c r="BN58">
+        <v>2.8</v>
+      </c>
+      <c r="BO58">
+        <v>3.5</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A59" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B59">
+        <v>13.4</v>
+      </c>
+      <c r="C59">
+        <v>7.71</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>-1.4</v>
+      </c>
+      <c r="G59">
+        <v>-4</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>86.4</v>
+      </c>
+      <c r="J59">
+        <v>78</v>
+      </c>
+      <c r="K59">
+        <v>56</v>
+      </c>
+      <c r="L59">
+        <v>10.4</v>
+      </c>
+      <c r="M59">
+        <v>5.4</v>
+      </c>
+      <c r="N59">
+        <v>3.6</v>
+      </c>
+      <c r="O59">
+        <v>-3.2</v>
+      </c>
+      <c r="P59">
+        <v>26</v>
+      </c>
+      <c r="Q59">
+        <v>17.75</v>
+      </c>
+      <c r="R59">
+        <v>17.5</v>
+      </c>
+      <c r="S59">
+        <v>9</v>
+      </c>
+      <c r="T59">
+        <v>40</v>
+      </c>
+      <c r="U59">
+        <v>16</v>
+      </c>
+      <c r="V59">
+        <v>100.84</v>
+      </c>
+      <c r="W59">
+        <v>100.3</v>
+      </c>
+      <c r="X59">
+        <v>100.31</v>
+      </c>
+      <c r="Y59">
+        <v>99.78</v>
+      </c>
+      <c r="Z59">
+        <v>97.96</v>
+      </c>
+      <c r="AA59">
+        <v>97.44</v>
+      </c>
+      <c r="AB59">
+        <v>97.46</v>
+      </c>
+      <c r="AC59">
+        <v>96.96</v>
+      </c>
+      <c r="AD59">
+        <v>24100</v>
+      </c>
+      <c r="AE59">
+        <v>22829.200000000001</v>
+      </c>
+      <c r="AF59">
+        <v>15250</v>
+      </c>
+      <c r="AG59">
+        <v>6400</v>
+      </c>
+      <c r="AH59">
+        <v>4.3</v>
+      </c>
+      <c r="AI59">
+        <v>3.3</v>
+      </c>
+      <c r="AJ59">
+        <v>3.4</v>
+      </c>
+      <c r="AK59">
+        <v>2.5</v>
+      </c>
+      <c r="AL59">
+        <v>12</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AR59">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="2">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="AV59">
+        <v>1709035140</v>
+      </c>
+      <c r="AW59">
+        <v>6.98</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="AY59">
+        <v>1709075160</v>
+      </c>
+      <c r="AZ59">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="BA59">
+        <v>11.12</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
+      </c>
+      <c r="BC59">
+        <v>2</v>
+      </c>
+      <c r="BD59">
+        <v>13</v>
+      </c>
+      <c r="BE59">
+        <v>13</v>
+      </c>
+      <c r="BF59">
+        <v>10</v>
+      </c>
+      <c r="BG59">
+        <v>10</v>
+      </c>
+      <c r="BM59">
+        <v>8</v>
+      </c>
+      <c r="BN59">
+        <v>5.2</v>
+      </c>
+      <c r="BO59">
+        <v>4</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A60" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B60">
+        <v>14.9</v>
+      </c>
+      <c r="C60">
+        <v>3.88</v>
+      </c>
+      <c r="D60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E60">
+        <v>-6.1</v>
+      </c>
+      <c r="G60">
+        <v>-14</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>85.6</v>
+      </c>
+      <c r="J60">
+        <v>80</v>
+      </c>
+      <c r="K60">
+        <v>60</v>
+      </c>
+      <c r="L60">
+        <v>13.1</v>
+      </c>
+      <c r="M60">
+        <v>1.6</v>
+      </c>
+      <c r="N60">
+        <v>0.4</v>
+      </c>
+      <c r="O60">
+        <v>-12.3</v>
+      </c>
+      <c r="P60">
+        <v>52</v>
+      </c>
+      <c r="Q60">
+        <v>31.33</v>
+      </c>
+      <c r="R60">
+        <v>35</v>
+      </c>
+      <c r="S60">
+        <v>18</v>
+      </c>
+      <c r="T60">
+        <v>75</v>
+      </c>
+      <c r="U60">
+        <v>22</v>
+      </c>
+      <c r="V60">
+        <v>101.99</v>
+      </c>
+      <c r="W60">
+        <v>100.12</v>
+      </c>
+      <c r="X60">
+        <v>100.49</v>
+      </c>
+      <c r="Y60">
+        <v>98.99</v>
+      </c>
+      <c r="Z60">
+        <v>99.05</v>
+      </c>
+      <c r="AA60">
+        <v>97.28</v>
+      </c>
+      <c r="AB60">
+        <v>97.62</v>
+      </c>
+      <c r="AC60">
+        <v>96.2</v>
+      </c>
+      <c r="AD60">
+        <v>24100</v>
+      </c>
+      <c r="AE60">
+        <v>20162.5</v>
+      </c>
+      <c r="AF60">
+        <v>14450</v>
+      </c>
+      <c r="AG60">
+        <v>4800</v>
+      </c>
+      <c r="AH60">
+        <v>2.9</v>
+      </c>
+      <c r="AI60">
+        <v>2.1</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.3</v>
+      </c>
+      <c r="AL60">
+        <v>13.6</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>10.6</v>
+      </c>
+      <c r="AR60">
+        <v>10.4</v>
+      </c>
+      <c r="AS60">
+        <v>0.2</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="AV60">
+        <v>1709121480</v>
+      </c>
+      <c r="AW60">
+        <v>6.97</v>
+      </c>
+      <c r="AX60" s="2">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="AY60">
+        <v>1709161620</v>
+      </c>
+      <c r="AZ60">
+        <v>18.12</v>
+      </c>
+      <c r="BA60">
+        <v>11.15</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>2</v>
+      </c>
+      <c r="BD60">
+        <v>10</v>
+      </c>
+      <c r="BE60">
+        <v>13</v>
+      </c>
+      <c r="BF60">
+        <v>-7</v>
+      </c>
+      <c r="BG60">
+        <v>-5</v>
+      </c>
+      <c r="BM60">
+        <v>8</v>
+      </c>
+      <c r="BN60">
+        <v>6.9</v>
+      </c>
+      <c r="BO60">
+        <v>6</v>
+      </c>
+      <c r="BP60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68" x14ac:dyDescent="0.5">
+      <c r="A61" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B61">
+        <v>-2.6</v>
+      </c>
+      <c r="C61">
+        <v>-5.42</v>
+      </c>
+      <c r="D61">
+        <v>-5.25</v>
+      </c>
+      <c r="E61">
+        <v>-7.9</v>
+      </c>
+      <c r="G61">
+        <v>-15</v>
+      </c>
+      <c r="H61">
+        <v>87</v>
+      </c>
+      <c r="I61">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J61">
+        <v>67</v>
+      </c>
+      <c r="K61">
+        <v>47</v>
+      </c>
+      <c r="L61">
+        <v>-7.3</v>
+      </c>
+      <c r="M61">
+        <v>-11.2</v>
+      </c>
+      <c r="N61">
+        <v>-10.3</v>
+      </c>
+      <c r="O61">
+        <v>-13.4</v>
+      </c>
+      <c r="P61">
+        <v>34</v>
+      </c>
+      <c r="Q61">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="R61">
+        <v>19</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>50</v>
+      </c>
+      <c r="U61">
+        <v>26</v>
+      </c>
+      <c r="V61">
+        <v>103.09</v>
+      </c>
+      <c r="W61">
+        <v>102.78</v>
+      </c>
+      <c r="X61">
+        <v>102.59</v>
+      </c>
+      <c r="Y61">
+        <v>102.1</v>
+      </c>
+      <c r="Z61">
+        <v>100.08</v>
+      </c>
+      <c r="AA61">
+        <v>99.79</v>
+      </c>
+      <c r="AB61">
+        <v>99.62</v>
+      </c>
+      <c r="AC61">
+        <v>99.15</v>
+      </c>
+      <c r="AD61">
+        <v>24100</v>
+      </c>
+      <c r="AE61">
+        <v>22345.8</v>
+      </c>
+      <c r="AF61">
+        <v>13450</v>
+      </c>
+      <c r="AG61">
+        <v>2800</v>
+      </c>
+      <c r="AH61">
+        <v>2.8</v>
+      </c>
+      <c r="AI61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ61">
+        <v>2.5</v>
+      </c>
+      <c r="AK61">
+        <v>2.1</v>
+      </c>
+      <c r="AL61">
+        <v>23.2</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0.2</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0.2</v>
+      </c>
+      <c r="AT61">
+        <v>1</v>
+      </c>
+      <c r="AU61" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="AV61">
+        <v>1709207760</v>
+      </c>
+      <c r="AW61">
+        <v>6.93</v>
+      </c>
+      <c r="AX61" s="2">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="AY61">
+        <v>1709248080</v>
+      </c>
+      <c r="AZ61">
+        <v>18.13</v>
+      </c>
+      <c r="BA61">
+        <v>11.2</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>3</v>
+      </c>
+      <c r="BD61">
+        <v>-3</v>
+      </c>
+      <c r="BE61">
+        <v>-3</v>
+      </c>
+      <c r="BF61">
+        <v>-7</v>
+      </c>
+      <c r="BG61">
+        <v>-5</v>
+      </c>
+      <c r="BM61">
+        <v>8</v>
+      </c>
+      <c r="BN61">
+        <v>5.8</v>
+      </c>
+      <c r="BO61">
+        <v>5</v>
+      </c>
+      <c r="BP61">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BT46">
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BT61">
+    <sortCondition ref="A2:A61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>